--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dlk1-Notch1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dlk1-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,19 +94,10 @@
     <t>Notch1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.04063262532702</v>
+        <v>0.0572405</v>
       </c>
       <c r="H2">
-        <v>1.04063262532702</v>
+        <v>0.114481</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01596612258633864</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01545336076613875</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N2">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O2">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P2">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q2">
-        <v>69.77538692843851</v>
+        <v>3.839313578928</v>
       </c>
       <c r="R2">
-        <v>69.77538692843851</v>
+        <v>15.357254315712</v>
       </c>
       <c r="S2">
-        <v>0.4016786965895207</v>
+        <v>0.006204678891518825</v>
       </c>
       <c r="T2">
-        <v>0.4016786965895207</v>
+        <v>0.004948130534392261</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.04063262532702</v>
+        <v>0.0572405</v>
       </c>
       <c r="H3">
-        <v>1.04063262532702</v>
+        <v>0.114481</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01596612258633864</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01545336076613875</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N3">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O3">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P3">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q3">
-        <v>4.169287567037848</v>
+        <v>0.2414982800653333</v>
       </c>
       <c r="R3">
-        <v>4.169287567037848</v>
+        <v>1.448989680392</v>
       </c>
       <c r="S3">
-        <v>0.02400150066315274</v>
+        <v>0.0003902831195877099</v>
       </c>
       <c r="T3">
-        <v>0.02400150066315274</v>
+        <v>0.0004668666634133635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.04063262532702</v>
+        <v>0.0572405</v>
       </c>
       <c r="H4">
-        <v>1.04063262532702</v>
+        <v>0.114481</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.01596612258633864</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01545336076613875</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N4">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O4">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P4">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q4">
-        <v>12.9560677203358</v>
+        <v>0.7183617877433333</v>
       </c>
       <c r="R4">
-        <v>12.9560677203358</v>
+        <v>4.31017072646</v>
       </c>
       <c r="S4">
-        <v>0.07458470133841665</v>
+        <v>0.001160937789855996</v>
       </c>
       <c r="T4">
-        <v>0.07458470133841665</v>
+        <v>0.001388743517662559</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.04063262532702</v>
+        <v>0.0572405</v>
       </c>
       <c r="H5">
-        <v>1.04063262532702</v>
+        <v>0.114481</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.01596612258633864</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.01545336076613875</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N5">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O5">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P5">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q5">
-        <v>12.64782446488331</v>
+        <v>0.6975607426846666</v>
       </c>
       <c r="R5">
-        <v>12.64782446488331</v>
+        <v>4.185364456107999</v>
       </c>
       <c r="S5">
-        <v>0.07281022534432931</v>
+        <v>0.001127321414807757</v>
       </c>
       <c r="T5">
-        <v>0.07281022534432931</v>
+        <v>0.00134853074886179</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>1.04063262532702</v>
+        <v>0.0572405</v>
       </c>
       <c r="H6">
-        <v>1.04063262532702</v>
+        <v>0.114481</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.01596612258633864</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.01545336076613875</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N6">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O6">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P6">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q6">
-        <v>44.3177509405451</v>
+        <v>2.564529598075667</v>
       </c>
       <c r="R6">
-        <v>44.3177509405451</v>
+        <v>15.387177588454</v>
       </c>
       <c r="S6">
-        <v>0.2551257286732689</v>
+        <v>0.004144512381376846</v>
       </c>
       <c r="T6">
-        <v>0.2551257286732689</v>
+        <v>0.00495777185806248</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,1177 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.0572405</v>
+      </c>
+      <c r="H7">
+        <v>0.114481</v>
+      </c>
+      <c r="I7">
+        <v>0.01596612258633864</v>
+      </c>
+      <c r="J7">
+        <v>0.01545336076613875</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>31.7643625</v>
+      </c>
+      <c r="N7">
+        <v>63.528725</v>
+      </c>
+      <c r="O7">
+        <v>0.1840389846252172</v>
+      </c>
+      <c r="P7">
+        <v>0.1516380468435678</v>
+      </c>
+      <c r="Q7">
+        <v>1.81820799168125</v>
+      </c>
+      <c r="R7">
+        <v>7.272831966725001</v>
+      </c>
+      <c r="S7">
+        <v>0.00293838898919151</v>
+      </c>
+      <c r="T7">
+        <v>0.002343317443746301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1688393333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.506518</v>
+      </c>
+      <c r="I8">
+        <v>0.04709444350408701</v>
+      </c>
+      <c r="J8">
+        <v>0.06837296484607114</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>67.073376</v>
+      </c>
+      <c r="N8">
+        <v>134.146752</v>
+      </c>
+      <c r="O8">
+        <v>0.3886152607163267</v>
+      </c>
+      <c r="P8">
+        <v>0.3201976973989085</v>
+      </c>
+      <c r="Q8">
+        <v>11.324624088256</v>
+      </c>
+      <c r="R8">
+        <v>67.947744529536</v>
+      </c>
+      <c r="S8">
+        <v>0.0183016194406311</v>
+      </c>
+      <c r="T8">
+        <v>0.02189286590804849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1688393333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.506518</v>
+      </c>
+      <c r="I9">
+        <v>0.04709444350408701</v>
+      </c>
+      <c r="J9">
+        <v>0.06837296484607114</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.219010666666667</v>
+      </c>
+      <c r="N9">
+        <v>12.657032</v>
+      </c>
+      <c r="O9">
+        <v>0.02444445215030819</v>
+      </c>
+      <c r="P9">
+        <v>0.03021133528677833</v>
+      </c>
+      <c r="Q9">
+        <v>0.7123349482862222</v>
+      </c>
+      <c r="R9">
+        <v>6.411014534576001</v>
+      </c>
+      <c r="S9">
+        <v>0.001151197870781048</v>
+      </c>
+      <c r="T9">
+        <v>0.002065638565515763</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1688393333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.506518</v>
+      </c>
+      <c r="I10">
+        <v>0.04709444350408701</v>
+      </c>
+      <c r="J10">
+        <v>0.06837296484607114</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>12.54988666666667</v>
+      </c>
+      <c r="N10">
+        <v>37.64966</v>
+      </c>
+      <c r="O10">
+        <v>0.07271256897710082</v>
+      </c>
+      <c r="P10">
+        <v>0.0898667635266472</v>
+      </c>
+      <c r="Q10">
+        <v>2.118914498208889</v>
+      </c>
+      <c r="R10">
+        <v>19.07023048388</v>
+      </c>
+      <c r="S10">
+        <v>0.003424357971729105</v>
+      </c>
+      <c r="T10">
+        <v>0.006144457063437637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1688393333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.506518</v>
+      </c>
+      <c r="I11">
+        <v>0.04709444350408701</v>
+      </c>
+      <c r="J11">
+        <v>0.06837296484607114</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>12.18648933333333</v>
+      </c>
+      <c r="N11">
+        <v>36.559468</v>
+      </c>
+      <c r="O11">
+        <v>0.07060708751994335</v>
+      </c>
+      <c r="P11">
+        <v>0.08726456136432641</v>
+      </c>
+      <c r="Q11">
+        <v>2.057558734713778</v>
+      </c>
+      <c r="R11">
+        <v>18.518028612424</v>
+      </c>
+      <c r="S11">
+        <v>0.0033252014941961</v>
+      </c>
+      <c r="T11">
+        <v>0.005966536786470907</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1688393333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.506518</v>
+      </c>
+      <c r="I12">
+        <v>0.04709444350408701</v>
+      </c>
+      <c r="J12">
+        <v>0.06837296484607114</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>44.80271133333334</v>
+      </c>
+      <c r="N12">
+        <v>134.408134</v>
+      </c>
+      <c r="O12">
+        <v>0.2595816460111038</v>
+      </c>
+      <c r="P12">
+        <v>0.3208215955797718</v>
+      </c>
+      <c r="Q12">
+        <v>7.56445991304578</v>
+      </c>
+      <c r="R12">
+        <v>68.08013921741201</v>
+      </c>
+      <c r="S12">
+        <v>0.01222485316276784</v>
+      </c>
+      <c r="T12">
+        <v>0.02193552367643619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1688393333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.506518</v>
+      </c>
+      <c r="I13">
+        <v>0.04709444350408701</v>
+      </c>
+      <c r="J13">
+        <v>0.06837296484607114</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>31.7643625</v>
+      </c>
+      <c r="N13">
+        <v>63.528725</v>
+      </c>
+      <c r="O13">
+        <v>0.1840389846252172</v>
+      </c>
+      <c r="P13">
+        <v>0.1516380468435678</v>
+      </c>
+      <c r="Q13">
+        <v>5.363073788258334</v>
+      </c>
+      <c r="R13">
+        <v>32.17844272955</v>
+      </c>
+      <c r="S13">
+        <v>0.00866721356398183</v>
+      </c>
+      <c r="T13">
+        <v>0.01036794284616215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.04063262532702</v>
-      </c>
-      <c r="H7">
-        <v>1.04063262532702</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>28.6778785375313</v>
-      </c>
-      <c r="N7">
-        <v>28.6778785375313</v>
-      </c>
-      <c r="O7">
-        <v>0.1717991473913118</v>
-      </c>
-      <c r="P7">
-        <v>0.1717991473913118</v>
-      </c>
-      <c r="Q7">
-        <v>29.84313603132059</v>
-      </c>
-      <c r="R7">
-        <v>29.84313603132059</v>
-      </c>
-      <c r="S7">
-        <v>0.1717991473913118</v>
-      </c>
-      <c r="T7">
-        <v>0.1717991473913118</v>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.06907833333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.207235</v>
+      </c>
+      <c r="I14">
+        <v>0.01926805562599843</v>
+      </c>
+      <c r="J14">
+        <v>0.02797387530132306</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>67.073376</v>
+      </c>
+      <c r="N14">
+        <v>134.146752</v>
+      </c>
+      <c r="O14">
+        <v>0.3886152607163267</v>
+      </c>
+      <c r="P14">
+        <v>0.3201976973989085</v>
+      </c>
+      <c r="Q14">
+        <v>4.63331702512</v>
+      </c>
+      <c r="R14">
+        <v>27.79990215072</v>
+      </c>
+      <c r="S14">
+        <v>0.007487860460594066</v>
+      </c>
+      <c r="T14">
+        <v>0.008957170458807839</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.06907833333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.207235</v>
+      </c>
+      <c r="I15">
+        <v>0.01926805562599843</v>
+      </c>
+      <c r="J15">
+        <v>0.02797387530132306</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.219010666666667</v>
+      </c>
+      <c r="N15">
+        <v>12.657032</v>
+      </c>
+      <c r="O15">
+        <v>0.02444445215030819</v>
+      </c>
+      <c r="P15">
+        <v>0.03021133528677833</v>
+      </c>
+      <c r="Q15">
+        <v>0.2914422251688889</v>
+      </c>
+      <c r="R15">
+        <v>2.62298002652</v>
+      </c>
+      <c r="S15">
+        <v>0.0004709970637791952</v>
+      </c>
+      <c r="T15">
+        <v>0.000845128125998798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.06907833333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.207235</v>
+      </c>
+      <c r="I16">
+        <v>0.01926805562599843</v>
+      </c>
+      <c r="J16">
+        <v>0.02797387530132306</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>12.54988666666667</v>
+      </c>
+      <c r="N16">
+        <v>37.64966</v>
+      </c>
+      <c r="O16">
+        <v>0.07271256897710082</v>
+      </c>
+      <c r="P16">
+        <v>0.0898667635266472</v>
+      </c>
+      <c r="Q16">
+        <v>0.8669252544555556</v>
+      </c>
+      <c r="R16">
+        <v>7.802327290099999</v>
+      </c>
+      <c r="S16">
+        <v>0.001401029823760026</v>
+      </c>
+      <c r="T16">
+        <v>0.002513921636627916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.06907833333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.207235</v>
+      </c>
+      <c r="I17">
+        <v>0.01926805562599843</v>
+      </c>
+      <c r="J17">
+        <v>0.02797387530132306</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.18648933333333</v>
+      </c>
+      <c r="N17">
+        <v>36.559468</v>
+      </c>
+      <c r="O17">
+        <v>0.07060708751994335</v>
+      </c>
+      <c r="P17">
+        <v>0.08726456136432641</v>
+      </c>
+      <c r="Q17">
+        <v>0.8418223723311111</v>
+      </c>
+      <c r="R17">
+        <v>7.576401350979999</v>
+      </c>
+      <c r="S17">
+        <v>0.001360461289924008</v>
+      </c>
+      <c r="T17">
+        <v>0.002441127957830321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.06907833333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.207235</v>
+      </c>
+      <c r="I18">
+        <v>0.01926805562599843</v>
+      </c>
+      <c r="J18">
+        <v>0.02797387530132306</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>44.80271133333334</v>
+      </c>
+      <c r="N18">
+        <v>134.408134</v>
+      </c>
+      <c r="O18">
+        <v>0.2595816460111038</v>
+      </c>
+      <c r="P18">
+        <v>0.3208215955797718</v>
+      </c>
+      <c r="Q18">
+        <v>3.094896627721112</v>
+      </c>
+      <c r="R18">
+        <v>27.85406964949</v>
+      </c>
+      <c r="S18">
+        <v>0.005001633594830181</v>
+      </c>
+      <c r="T18">
+        <v>0.008974623308720033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.06907833333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.207235</v>
+      </c>
+      <c r="I19">
+        <v>0.01926805562599843</v>
+      </c>
+      <c r="J19">
+        <v>0.02797387530132306</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>31.7643625</v>
+      </c>
+      <c r="N19">
+        <v>63.528725</v>
+      </c>
+      <c r="O19">
+        <v>0.1840389846252172</v>
+      </c>
+      <c r="P19">
+        <v>0.1516380468435678</v>
+      </c>
+      <c r="Q19">
+        <v>2.194229220895834</v>
+      </c>
+      <c r="R19">
+        <v>13.165375325375</v>
+      </c>
+      <c r="S19">
+        <v>0.003546073393110955</v>
+      </c>
+      <c r="T19">
+        <v>0.004241903813338149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.289964</v>
+      </c>
+      <c r="H20">
+        <v>6.579928</v>
+      </c>
+      <c r="I20">
+        <v>0.9176713782835759</v>
+      </c>
+      <c r="J20">
+        <v>0.8881997990864671</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>67.073376</v>
+      </c>
+      <c r="N20">
+        <v>134.146752</v>
+      </c>
+      <c r="O20">
+        <v>0.3886152607163267</v>
+      </c>
+      <c r="P20">
+        <v>0.3201976973989085</v>
+      </c>
+      <c r="Q20">
+        <v>220.668992398464</v>
+      </c>
+      <c r="R20">
+        <v>882.6759695938559</v>
+      </c>
+      <c r="S20">
+        <v>0.3566211019235828</v>
+      </c>
+      <c r="T20">
+        <v>0.2843995304976599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.289964</v>
+      </c>
+      <c r="H21">
+        <v>6.579928</v>
+      </c>
+      <c r="I21">
+        <v>0.9176713782835759</v>
+      </c>
+      <c r="J21">
+        <v>0.8881997990864671</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.219010666666667</v>
+      </c>
+      <c r="N21">
+        <v>12.657032</v>
+      </c>
+      <c r="O21">
+        <v>0.02444445215030819</v>
+      </c>
+      <c r="P21">
+        <v>0.03021133528677833</v>
+      </c>
+      <c r="Q21">
+        <v>13.88039320894933</v>
+      </c>
+      <c r="R21">
+        <v>83.282359253696</v>
+      </c>
+      <c r="S21">
+        <v>0.02243197409616024</v>
+      </c>
+      <c r="T21">
+        <v>0.0268337019318504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.289964</v>
+      </c>
+      <c r="H22">
+        <v>6.579928</v>
+      </c>
+      <c r="I22">
+        <v>0.9176713782835759</v>
+      </c>
+      <c r="J22">
+        <v>0.8881997990864671</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>12.54988666666667</v>
+      </c>
+      <c r="N22">
+        <v>37.64966</v>
+      </c>
+      <c r="O22">
+        <v>0.07271256897710082</v>
+      </c>
+      <c r="P22">
+        <v>0.0898667635266472</v>
+      </c>
+      <c r="Q22">
+        <v>41.28867533741333</v>
+      </c>
+      <c r="R22">
+        <v>247.73205202448</v>
+      </c>
+      <c r="S22">
+        <v>0.0667262433917557</v>
+      </c>
+      <c r="T22">
+        <v>0.0798196413089191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.289964</v>
+      </c>
+      <c r="H23">
+        <v>6.579928</v>
+      </c>
+      <c r="I23">
+        <v>0.9176713782835759</v>
+      </c>
+      <c r="J23">
+        <v>0.8881997990864671</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>12.18648933333333</v>
+      </c>
+      <c r="N23">
+        <v>36.559468</v>
+      </c>
+      <c r="O23">
+        <v>0.07060708751994335</v>
+      </c>
+      <c r="P23">
+        <v>0.08726456136432641</v>
+      </c>
+      <c r="Q23">
+        <v>40.09311119305066</v>
+      </c>
+      <c r="R23">
+        <v>240.558667158304</v>
+      </c>
+      <c r="S23">
+        <v>0.06479410332101548</v>
+      </c>
+      <c r="T23">
+        <v>0.07750836587116339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.289964</v>
+      </c>
+      <c r="H24">
+        <v>6.579928</v>
+      </c>
+      <c r="I24">
+        <v>0.9176713782835759</v>
+      </c>
+      <c r="J24">
+        <v>0.8881997990864671</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>44.80271133333334</v>
+      </c>
+      <c r="N24">
+        <v>134.408134</v>
+      </c>
+      <c r="O24">
+        <v>0.2595816460111038</v>
+      </c>
+      <c r="P24">
+        <v>0.3208215955797718</v>
+      </c>
+      <c r="Q24">
+        <v>147.3993073890587</v>
+      </c>
+      <c r="R24">
+        <v>884.3958443343521</v>
+      </c>
+      <c r="S24">
+        <v>0.2382106468721289</v>
+      </c>
+      <c r="T24">
+        <v>0.2849536767365531</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.289964</v>
+      </c>
+      <c r="H25">
+        <v>6.579928</v>
+      </c>
+      <c r="I25">
+        <v>0.9176713782835759</v>
+      </c>
+      <c r="J25">
+        <v>0.8881997990864671</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>31.7643625</v>
+      </c>
+      <c r="N25">
+        <v>63.528725</v>
+      </c>
+      <c r="O25">
+        <v>0.1840389846252172</v>
+      </c>
+      <c r="P25">
+        <v>0.1516380468435678</v>
+      </c>
+      <c r="Q25">
+        <v>104.50360910795</v>
+      </c>
+      <c r="R25">
+        <v>418.0144364318</v>
+      </c>
+      <c r="S25">
+        <v>0.1688873086789329</v>
+      </c>
+      <c r="T25">
+        <v>0.1346848827403212</v>
       </c>
     </row>
   </sheetData>
